--- a/src/views/vo_new_terms_IDs.xlsx
+++ b/src/views/vo_new_terms_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurel/Desktop/he lab/VO/src/views/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F2B856-09E3-914F-85DC-D3C8DA0ADF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC17692-0A38-3B46-9D1C-8DBAF44F623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="1240" windowWidth="26460" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>VO:0021167</t>
   </si>
   <si>
-    <t>VO:0010329</t>
+    <t>VO:0010330</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -267,12 +267,16 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1051,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
